--- a/DaySale_2025-05-22_00-00.xlsx
+++ b/DaySale_2025-05-22_00-00.xlsx
@@ -41,7 +41,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 22 May, 2025 9:46 PM</t>
+    <t>Thursday, 22 May, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-22_00-00.xlsx
+++ b/DaySale_2025-05-22_00-00.xlsx
@@ -41,7 +41,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 22 May, 2025 10:03 PM</t>
+    <t>Thursday, 22 May, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-22_00-00.xlsx
+++ b/DaySale_2025-05-22_00-00.xlsx
@@ -41,7 +41,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 22 May, 2025 10:07 PM</t>
+    <t>Thursday, 22 May, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-22_00-00.xlsx
+++ b/DaySale_2025-05-22_00-00.xlsx
@@ -41,7 +41,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 22 May, 2025 10:09 PM</t>
+    <t>Thursday, 22 May, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-22_00-00.xlsx
+++ b/DaySale_2025-05-22_00-00.xlsx
@@ -41,7 +41,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 22 May, 2025 10:10 PM</t>
+    <t>Thursday, 22 May, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
